--- a/Data/Transitions/19581970Translation.xlsx
+++ b/Data/Transitions/19581970Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="657">
   <si>
     <t>id</t>
   </si>
@@ -433,7 +433,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -625,7 +625,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1703,9 +1703,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3866,7 +3863,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>563</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3877,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3888,7 +3885,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3943,7 +3940,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4075,7 +4072,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4086,7 +4083,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4119,7 +4116,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4130,7 +4127,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4174,7 +4171,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4262,7 +4259,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4273,7 +4270,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4295,7 +4292,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4372,7 +4369,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4383,7 +4380,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4405,7 +4402,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4427,7 +4424,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4438,7 +4435,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4449,7 +4446,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4515,7 +4512,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4570,7 +4567,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>563</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4625,7 +4622,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4647,7 +4644,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4702,7 +4699,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4768,7 +4765,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4823,7 +4820,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4922,7 +4919,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4988,7 +4985,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5032,7 +5029,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5054,7 +5051,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5065,7 +5062,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5219,7 +5216,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5263,7 +5260,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5274,7 +5271,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5351,7 +5348,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5362,7 +5359,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5439,7 +5436,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5527,7 +5524,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5560,7 +5557,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5582,7 +5579,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5615,7 +5612,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5637,7 +5634,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5659,7 +5656,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5681,7 +5678,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5736,7 +5733,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5769,7 +5766,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5879,7 +5876,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5890,7 +5887,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5934,7 +5931,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5956,7 +5953,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6055,7 +6052,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6077,7 +6074,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6132,7 +6129,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6154,7 +6151,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6253,7 +6250,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6264,7 +6261,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6275,7 +6272,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6286,7 +6283,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6374,7 +6371,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6440,7 +6437,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6451,7 +6448,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6495,7 +6492,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6561,7 +6558,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6572,7 +6569,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6616,7 +6613,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6671,7 +6668,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6715,7 +6712,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6979,7 +6976,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7034,7 +7031,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7045,7 +7042,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7067,7 +7064,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7100,7 +7097,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7122,7 +7119,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7133,7 +7130,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7144,7 +7141,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7166,7 +7163,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7254,7 +7251,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7298,7 +7295,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7353,7 +7350,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7375,7 +7372,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7419,7 +7416,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7430,7 +7427,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7441,7 +7438,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7496,7 +7493,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7507,7 +7504,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7529,7 +7526,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7551,7 +7548,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7672,7 +7669,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7705,7 +7702,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7738,7 +7735,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7826,7 +7823,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7848,7 +7845,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7870,7 +7867,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7881,7 +7878,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7903,7 +7900,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7925,7 +7922,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8024,7 +8021,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
